--- a/RemoteCases/RECEIVER1/Example.xlsx
+++ b/RemoteCases/RECEIVER1/Example.xlsx
@@ -1,348 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jia/Dropbox/v2test/RemoteCases/RECEIVER1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17620"/>
   </bookViews>
   <sheets>
-    <sheet name="Tests1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Tests2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Tests1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tests2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tests1!$A$1:$K$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tests2!$A$1:$K$8</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="145">
   <si>
     <t>Run</t>
   </si>
@@ -563,18 +253,12 @@
     <t>RETURN</t>
   </si>
   <si>
-    <t>AT.BG.Bash.01</t>
-  </si>
-  <si>
     <t>Shell Command</t>
   </si>
   <si>
     <t>shell</t>
   </si>
   <si>
-    <t>cmd</t>
-  </si>
-  <si>
     <t>ls -l</t>
   </si>
   <si>
@@ -587,243 +271,281 @@
     <t>config.ini</t>
   </si>
   <si>
-    <t>AT.BG.Bash.02</t>
-  </si>
-  <si>
-    <t>Shell Script</t>
+    <t>Example.sh</t>
+  </si>
+  <si>
+    <t>AT.HTTP.Get.01</t>
+  </si>
+  <si>
+    <t>Get Request</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>https://github.com/timeline.json</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>2017-10-03 23:39:33</t>
+  </si>
+  <si>
+    <t>[Line 0] HTTPSConnectionPool(host='github.com', port=443): Read timed out. (read timeout=1.0)</t>
+  </si>
+  <si>
+    <t>in.text</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>AT.HTTP.Get.02</t>
+  </si>
+  <si>
+    <t>headers</t>
+  </si>
+  <si>
+    <t>{'user-agent': 'my-app/0.0.1'}</t>
+  </si>
+  <si>
+    <t>2017-10-03 23:39:35</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>{'key1': 'value1', 'key2': 'value2'}</t>
+  </si>
+  <si>
+    <t>timeout</t>
+  </si>
+  <si>
+    <t>equal.status_code</t>
+  </si>
+  <si>
+    <t>equal.ok</t>
+  </si>
+  <si>
+    <t>!in.text</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>!equal.text</t>
+  </si>
+  <si>
+    <t>zzzz</t>
+  </si>
+  <si>
+    <t>AT.HTTP.Get.03</t>
+  </si>
+  <si>
+    <t>&lt;headers&gt;</t>
+  </si>
+  <si>
+    <t>2017-10-02 19:46:36</t>
+  </si>
+  <si>
+    <t>user-agent</t>
+  </si>
+  <si>
+    <t>my-app/0.0.1</t>
+  </si>
+  <si>
+    <t>&lt;/headers&gt;</t>
+  </si>
+  <si>
+    <t>&lt;params&gt;</t>
+  </si>
+  <si>
+    <t>key1</t>
+  </si>
+  <si>
+    <t>value1</t>
+  </si>
+  <si>
+    <t>key2</t>
+  </si>
+  <si>
+    <t>value2</t>
+  </si>
+  <si>
+    <t>&lt;/params&gt;</t>
+  </si>
+  <si>
+    <t>zzz</t>
+  </si>
+  <si>
+    <t>AT.MYSQL.Select.01</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>mysql</t>
+  </si>
+  <si>
+    <t>fetchone</t>
+  </si>
+  <si>
+    <t>SELECT name FROM help_keyword;</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>fetchone.name</t>
+  </si>
+  <si>
+    <t>fetchall</t>
+  </si>
+  <si>
+    <t>AES_ENCRYPT</t>
+  </si>
+  <si>
+    <t>fetchmany.5</t>
+  </si>
+  <si>
+    <t>Locate/Encapsulate</t>
+  </si>
+  <si>
+    <t>Action/Check</t>
+  </si>
+  <si>
+    <t>AT.Login.11</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>uI</t>
+  </si>
+  <si>
+    <t>AT.Login.12</t>
+  </si>
+  <si>
+    <t>AT.Login.13</t>
+  </si>
+  <si>
+    <t>command</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bash</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bash Script</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT.BG.Shell.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT.BG.Shell.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT.BG.Shell.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python Script</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>python</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Example.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Executable File</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>file</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Example.sh</t>
-  </si>
-  <si>
-    <t>AT.HTTP.Get.01</t>
-  </si>
-  <si>
-    <t>Get Request</t>
-  </si>
-  <si>
-    <t>http</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>https://github.com/timeline.json</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>2017-10-03 23:39:33</t>
-  </si>
-  <si>
-    <t>[Line 0] HTTPSConnectionPool(host='github.com', port=443): Read timed out. (read timeout=1.0)</t>
-  </si>
-  <si>
-    <t>in.text</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>AT.HTTP.Get.02</t>
-  </si>
-  <si>
-    <t>headers</t>
-  </si>
-  <si>
-    <t>{'user-agent': 'my-app/0.0.1'}</t>
-  </si>
-  <si>
-    <t>2017-10-03 23:39:35</t>
-  </si>
-  <si>
-    <t>params</t>
-  </si>
-  <si>
-    <t>{'key1': 'value1', 'key2': 'value2'}</t>
-  </si>
-  <si>
-    <t>timeout</t>
-  </si>
-  <si>
-    <t>equal.status_code</t>
-  </si>
-  <si>
-    <t>equal.ok</t>
-  </si>
-  <si>
-    <t>!in.text</t>
-  </si>
-  <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t>!equal.text</t>
-  </si>
-  <si>
-    <t>zzzz</t>
-  </si>
-  <si>
-    <t>AT.HTTP.Get.03</t>
-  </si>
-  <si>
-    <t>&lt;headers&gt;</t>
-  </si>
-  <si>
-    <t>2017-10-02 19:46:36</t>
-  </si>
-  <si>
-    <t>user-agent</t>
-  </si>
-  <si>
-    <t>my-app/0.0.1</t>
-  </si>
-  <si>
-    <t>&lt;/headers&gt;</t>
-  </si>
-  <si>
-    <t>&lt;params&gt;</t>
-  </si>
-  <si>
-    <t>key1</t>
-  </si>
-  <si>
-    <t>value1</t>
-  </si>
-  <si>
-    <t>key2</t>
-  </si>
-  <si>
-    <t>value2</t>
-  </si>
-  <si>
-    <t>&lt;/params&gt;</t>
-  </si>
-  <si>
-    <t>zzz</t>
-  </si>
-  <si>
-    <t>AT.MYSQL.Select.01</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>mysql</t>
-  </si>
-  <si>
-    <t>fetchone</t>
-  </si>
-  <si>
-    <t>SELECT name FROM help_keyword;</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>fetchone.name</t>
-  </si>
-  <si>
-    <t>fetchall</t>
-  </si>
-  <si>
-    <t>AES_ENCRYPT</t>
-  </si>
-  <si>
-    <t>fetchmany.5</t>
-  </si>
-  <si>
-    <t>Locate/Encapsulate</t>
-  </si>
-  <si>
-    <t>Action/Check</t>
-  </si>
-  <si>
-    <t>AT.Login.11</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>uI</t>
-  </si>
-  <si>
-    <t>AT.Login.12</t>
-  </si>
-  <si>
-    <t>AT.Login.13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="12"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="11"/>
-      <sz val="12"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
-      <family val="4"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.7999816888943144"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,38 +569,44 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" hidden="1" name="超链接" xfId="1"/>
-    <cellStyle builtinId="9" hidden="1" name="已访问的超链接" xfId="2"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1144,36 +872,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView showRuler="0" tabSelected="1" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A10" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="7" width="6.5"/>
-    <col customWidth="1" max="2" min="2" style="7" width="18.1640625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="7" width="21.33203125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="7" width="18"/>
-    <col customWidth="1" max="5" min="5" style="7" width="9"/>
-    <col customWidth="1" max="6" min="6" style="7" width="11"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="7" width="38.1640625"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="7" width="16.6640625"/>
-    <col customWidth="1" max="9" min="9" style="7" width="31.6640625"/>
-    <col customWidth="1" max="10" min="10" style="7" width="8.33203125"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="7" width="19.6640625"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="7" width="80.1640625"/>
-    <col customWidth="1" max="31" min="13" style="7" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="32" style="7" width="10.83203125"/>
+    <col min="1" max="1" width="6.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11" style="7" customWidth="1"/>
+    <col min="7" max="7" width="38.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.6640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="80.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="32" width="10.83203125" style="7" customWidth="1"/>
+    <col min="33" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1211,7 +935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1227,21 +951,21 @@
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="n"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="n"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="3" t="n"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1257,8 +981,8 @@
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1271,14 +995,14 @@
       <c r="K3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="3" t="n"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H4" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H5" s="7" t="s">
         <v>16</v>
       </c>
@@ -1286,7 +1010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1302,8 +1026,8 @@
       <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="3" t="n"/>
-      <c r="G6" s="3" t="n"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1316,9 +1040,9 @@
       <c r="K6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="3" t="n"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D7" s="7" t="s">
         <v>31</v>
       </c>
@@ -1335,7 +1059,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D8" s="7" t="s">
         <v>36</v>
       </c>
@@ -1346,7 +1070,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D9" s="7" t="s">
         <v>39</v>
       </c>
@@ -1360,7 +1084,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1376,8 +1100,8 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="3" t="n"/>
-      <c r="G10" s="3" t="n"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1390,9 +1114,9 @@
       <c r="K10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="3" t="s"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D11" s="7" t="s">
         <v>45</v>
       </c>
@@ -1409,15 +1133,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="7" t="n">
+      <c r="I12" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F13" s="7" t="s">
         <v>32</v>
       </c>
@@ -1428,7 +1152,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>48</v>
       </c>
@@ -1444,8 +1168,8 @@
       <c r="E14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="3" t="n"/>
-      <c r="G14" s="3" t="n"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1458,9 +1182,9 @@
       <c r="K14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L14" s="3" t="n"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D15" s="7" t="s">
         <v>54</v>
       </c>
@@ -1477,7 +1201,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="7" t="s">
         <v>58</v>
       </c>
@@ -1494,7 +1218,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D17" s="7" t="s">
         <v>61</v>
       </c>
@@ -1507,11 +1231,11 @@
       <c r="H17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="7" t="n">
+      <c r="I17" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D18" s="7" t="s">
         <v>41</v>
       </c>
@@ -1519,7 +1243,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>48</v>
       </c>
@@ -1535,8 +1259,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="3" t="n"/>
-      <c r="G19" s="3" t="n"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="2" t="s">
         <v>16</v>
       </c>
@@ -1549,9 +1273,9 @@
       <c r="K19" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L19" s="3" t="n"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D20" s="7" t="s">
         <v>68</v>
       </c>
@@ -1564,11 +1288,11 @@
       <c r="H20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I20" s="7" t="n">
+      <c r="I20" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H21" s="7" t="s">
         <v>34</v>
       </c>
@@ -1576,7 +1300,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D22" s="7" t="s">
         <v>58</v>
       </c>
@@ -1593,7 +1317,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D23" s="7" t="s">
         <v>70</v>
       </c>
@@ -1604,413 +1328,484 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="3" t="n"/>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="F24" s="3" t="n"/>
-      <c r="G24" s="3" t="n"/>
-      <c r="H24" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="L24" s="3" t="n"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="H25" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="3" t="n"/>
+        <v>135</v>
+      </c>
+      <c r="D26" s="3"/>
       <c r="E26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="3" t="n"/>
-      <c r="G26" s="3" t="n"/>
+        <v>74</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
       <c r="H26" s="2" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="L26" s="3" t="n"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="H27" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="3" t="n"/>
+        <v>139</v>
+      </c>
+      <c r="D28" s="3"/>
       <c r="E28" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="3" t="n"/>
-      <c r="G28" s="3" t="n"/>
+        <v>74</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
       <c r="H28" s="2" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>76</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H29" s="7" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="3" t="n"/>
+        <v>142</v>
+      </c>
+      <c r="D30" s="3"/>
       <c r="E30" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H30" s="3" t="n"/>
-      <c r="I30" s="3" t="n"/>
+        <v>74</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="J30" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H31" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H33" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F35" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F36" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" s="7">
+        <v>2</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H37" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I37" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H38" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="L30" s="3" t="n"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="F31" s="7" t="s">
+      <c r="I38" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H39" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="I39" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="F32" s="7" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H40" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G32" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="H33" s="7" t="s">
+      <c r="I40" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="I33" s="7" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="H34" s="7" t="s">
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I34" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="H35" s="7" t="s">
+      <c r="C41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="G41" s="2"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="H36" s="7" t="s">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F42" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="2" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F43" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F44" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F45" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F46" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F47" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F48" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G48" s="7">
+        <v>5</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H49" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H50" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="3" t="n"/>
-      <c r="E37" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G37" s="2" t="n"/>
-      <c r="H37" s="3" t="n"/>
-      <c r="I37" s="3" t="n"/>
-      <c r="J37" s="3" t="s">
+      <c r="B51" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J51" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K37" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L37" s="3" t="n"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="F38" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="F39" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="F40" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="F41" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="F42" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="F43" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="F44" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G44" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="19" r="45" spans="1:12">
-      <c r="H45" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="H46" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I46" s="7" t="s">
+      <c r="K51" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H52" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H53" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I53" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="2" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H54" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D47" s="3" t="n"/>
-      <c r="E47" s="2" t="s">
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H55" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F47" s="3" t="n"/>
-      <c r="G47" s="3" t="n"/>
-      <c r="H47" s="2" t="s">
+      <c r="I55" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H56" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I56" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="I47" s="2" t="s">
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H57" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="L47" s="3" t="n"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="H48" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="H49" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="H50" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="H51" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="H52" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="H53" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="H54" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>129</v>
+      <c r="I57" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H58" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K36"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <autoFilter ref="A1:K40"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="7" width="8.1640625"/>
-    <col bestFit="1" customWidth="1" max="4" min="2" style="7" width="12.1640625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="7" width="8.1640625"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="7" width="12.83203125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="7" width="28.1640625"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="7" width="12.83203125"/>
-    <col customWidth="1" max="9" min="9" style="7" width="30.6640625"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="7" width="8.1640625"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="7" width="19.6640625"/>
-    <col customWidth="1" max="12" min="12" style="7" width="31.83203125"/>
-    <col customWidth="1" max="30" min="13" style="7" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="31" style="7" width="10.83203125"/>
+    <col min="1" max="1" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.83203125" style="7" customWidth="1"/>
+    <col min="13" max="31" width="10.83203125" style="7" customWidth="1"/>
+    <col min="32" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2027,13 +1822,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -2048,88 +1843,88 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="3" t="n"/>
+        <v>129</v>
+      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="n"/>
+        <v>130</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="n"/>
-      <c r="K2" s="3" t="n"/>
-      <c r="L2" s="3" t="n"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="3" t="n"/>
+        <v>129</v>
+      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="3" t="n"/>
-      <c r="K3" s="3" t="n"/>
-      <c r="L3" s="3" t="n"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H4" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="3" t="n"/>
+        <v>129</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="3" t="n"/>
-      <c r="G5" s="3" t="n"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="3" t="n"/>
-      <c r="K5" s="3" t="n"/>
-      <c r="L5" s="3" t="n"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
@@ -2143,7 +1938,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
@@ -2154,13 +1949,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H8" s="7" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K8"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>